--- a/src/test/resources/testdata/ExeclTestdata.xlsx
+++ b/src/test/resources/testdata/ExeclTestdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f14336dd4898a29/Desktop/644Batch/HybridFramewrok_644Batch/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F25DC773A252ABDACC104815D91F7F545BDE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089F72D0-EB1C-4871-804E-5647EB3EB8E5}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104815D91F7F545BDE58FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D5C691-FCED-4E78-815D-6E7ACAABFA35}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="1752" windowWidth="12348" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HRM" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -50,16 +50,62 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>admin124</t>
+  </si>
+  <si>
+    <t>admin125</t>
+  </si>
+  <si>
+    <t>admin126</t>
+  </si>
+  <si>
+    <t>admin127</t>
+  </si>
+  <si>
+    <t>admin1231</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>In-Valid credentials</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Valid credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,34 +420,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6368392C-BE02-422B-9326-D7CE75AA5BB1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.33203125"/>
+    <col min="2" max="2" customWidth="true" width="21.77734375"/>
+    <col min="3" max="3" customWidth="true" width="34.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -420,9 +526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88671875"/>
+    <col min="2" max="2" customWidth="true" width="16.5546875"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,17 +540,17 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>4</v>
       </c>
     </row>
